--- a/Itinerary/Timetable.xlsx
+++ b/Itinerary/Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Itinerary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF862EEE-1A7A-46AC-808F-37EE5857C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BBDB8E-EF33-4C52-9E62-2DC7DA513A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA9AF1F7-A473-41BB-90EB-EB72E5DFA669}"/>
   </bookViews>
@@ -921,7 +921,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Itinerary/Timetable.xlsx
+++ b/Itinerary/Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Itinerary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BBDB8E-EF33-4C52-9E62-2DC7DA513A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D2D49-35A7-4F91-A5AE-9FE607C05024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA9AF1F7-A473-41BB-90EB-EB72E5DFA669}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,26 @@
 - …
 (저녁 후보)
 - 박물관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +298,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -481,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,12 +541,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -530,58 +607,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -918,373 +971,411 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6703EE-7E35-44CA-9677-F22F62E2AC66}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2">
         <v>45874</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D1" s="4">
         <v>45875</v>
       </c>
-      <c r="D1" s="6">
+      <c r="E1" s="6">
         <v>45876</v>
       </c>
-      <c r="E1" s="6">
+      <c r="F1" s="6">
         <v>45877</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G1" s="4">
         <v>45878</v>
       </c>
-      <c r="G1" s="6">
+      <c r="H1" s="6">
         <v>45879</v>
       </c>
-      <c r="H1" s="4">
+      <c r="I1" s="4">
         <v>45880</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="F4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="G4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="23" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="F8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="D10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="B14" s="35"/>
       <c r="C14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="9" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="16" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="20"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H4:H13"/>
-    <mergeCell ref="H17:H19"/>
+  <mergeCells count="32">
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D13"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F7:F19"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Itinerary/Timetable.xlsx
+++ b/Itinerary/Timetable.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박승빈\Desktop\IVF-SEED\Itinerary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2D2D49-35A7-4F91-A5AE-9FE607C05024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C69769-AA83-4C34-9862-536FF85E9B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA9AF1F7-A473-41BB-90EB-EB72E5DFA669}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="일정" sheetId="1" r:id="rId1"/>
+    <sheet name="예산" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저녁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,44 +127,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레크레이션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어 강의 (기초편)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 있는 영화 관람 후 나눔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>원투원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국의 역사 (강의+Quiz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한/영
-GIBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저녁
-(메뉴 미정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국의
-기독교 역사
-(강의+Quiz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국어 강의
-(실전편)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -182,22 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기도/휴식
-중 선택
-(미정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오전일정
-미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후일정
-미정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>찬양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,46 +175,268 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가벼운 저녁
-(메뉴 미정)</t>
+    <t>경주월드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산 (울산대 앞/동아리방)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 도봉서당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐 정리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짐 풀고 휴식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 국립
+박물관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 아레나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 역사 (강의+Quiz)
+- 송민석 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의
+기독교 역사
+- 서진우 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 있는 영화 관람 후 나눔
+- 유재승 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한/영
+GIBS
+-일단 간사님-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레크레이션
+- 박승빈 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통놀이모음
+- 송민석 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어 강의 (기초편)
+- 유재승 &amp; 
+서진우 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어 강의
+(실전편)
+- 유재승 &amp;
+박승빈 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT 후, 경주에서는 모든 일정 후: 공지 및 광고 시간 가지기 (내일 뭐 할건지 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬양 1시간
+- 박승빈 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대왕암으로
+출발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIST로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>소망 나누기
-(치킨 먹으면서)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주월드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오후/저녁
-일정 미정
-(점심 후보)
-- …
-(저녁 후보)
-- 박물관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숙박</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울산</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포항</t>
+(치킨
+먹으면서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 (긱식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 (요리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 (중국집)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁
+(김치찌개)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통놀이: 딱지치기, 수건돌리기, 투호, 비석치기, 제기차기, 무궁화 꽃이 피었습니다 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소망나누기: 서로 전해주고 싶은 말씀을 서로의 언어로 적어주며 교환하기 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대왕암 산책
+(비 오면
+우비입고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심(긱식)
+5,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬양 1시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 (긱식)
+5,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어 강의
+(실전편)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의 역사 (강의+Quiz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한/영
+GIBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국의
+기독교 역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 (긱식)
+5,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레크레이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어 강의 (기초편)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 있는 영화 관람 후 나눔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주월드
+35,400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동궁과 월지
+3,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치찌개
+10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 (중국집)
+10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주로 이동
+(점심-휴게소)
+10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심
+10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 아레나
+18,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한복
+20,000/3시간
+사진찍고
+시티투어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소망 나누기
+(치킨)
+10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통놀이모음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원투원
+5,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장에서
+조별로 재료 사오기
++
+요리하기
+10,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 숙소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,13 +479,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,97 +710,166 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -971,23 +1206,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6703EE-7E35-44CA-9677-F22F62E2AC66}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="9" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="9" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="33" t="s">
-        <v>50</v>
+      <c r="A1" s="13"/>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="C1" s="2">
         <v>45874</v>
@@ -1042,340 +1277,849 @@
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12" t="s">
-        <v>46</v>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="31" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="13"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>25</v>
+      <c r="B15" s="44"/>
+      <c r="C15" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="33"/>
       <c r="F16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="41"/>
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="38">
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:E18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="H20:I20"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G7:G19"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="E8:E13"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F8:F13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BD29F9-9188-47A5-A4DE-D32BAAD6A2D9}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="13" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45874</v>
+      </c>
+      <c r="D1" s="4">
+        <v>45875</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45876</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45877</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45878</v>
+      </c>
+      <c r="H1" s="6">
+        <v>45879</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45880</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="65"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="65"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="64"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="21">
+        <v>11000</v>
+      </c>
+      <c r="D20" s="21">
+        <v>11000</v>
+      </c>
+      <c r="E20" s="21">
+        <v>15500</v>
+      </c>
+      <c r="F20" s="21">
+        <v>20500</v>
+      </c>
+      <c r="G20" s="21">
+        <v>38000</v>
+      </c>
+      <c r="H20" s="21">
+        <v>33000</v>
+      </c>
+      <c r="I20" s="21">
+        <v>45400</v>
+      </c>
+      <c r="J20" s="22">
+        <f>SUM(C20:I20)</f>
+        <v>174400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="I4:I13"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="C21:I21"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:E18"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B3:B19"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I4:I13"/>
-    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
